--- a/Data/Input/Without_observations/xlsx/IB.xlsx
+++ b/Data/Input/Without_observations/xlsx/IB.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="23">
   <si>
     <t>id</t>
   </si>
@@ -119,8 +119,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -425,7 +428,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="E7" sqref="D6:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -550,8 +553,8 @@
       <c r="D6" t="s">
         <v>16</v>
       </c>
-      <c r="E6" t="s">
-        <v>16</v>
+      <c r="E6" s="1" t="b">
+        <v>0</v>
       </c>
       <c r="F6" t="s">
         <v>15</v>

--- a/Data/Input/Without_observations/xlsx/IB.xlsx
+++ b/Data/Input/Without_observations/xlsx/IB.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\R_projects\Surveyer\Data\Input\Without_observations\xlsx\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="276" yWindow="636" windowWidth="20772" windowHeight="7620"/>
+    <workbookView xWindow="270" yWindow="630" windowWidth="20775" windowHeight="7620" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Points" sheetId="1" r:id="rId1"/>
@@ -15,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="30">
   <si>
     <t>id</t>
   </si>
@@ -68,32 +73,61 @@
     <t>TRUE</t>
   </si>
   <si>
-    <t>distance</t>
-  </si>
-  <si>
-    <t>direction</t>
-  </si>
-  <si>
-    <t>standard_dir</t>
-  </si>
-  <si>
-    <t>standard_dist</t>
-  </si>
-  <si>
     <t>from</t>
   </si>
   <si>
     <t>to</t>
+  </si>
+  <si>
+    <t>HzD</t>
+  </si>
+  <si>
+    <t>HzM</t>
+  </si>
+  <si>
+    <t>HzS</t>
+  </si>
+  <si>
+    <t>HD</t>
+  </si>
+  <si>
+    <t>SD</t>
+  </si>
+  <si>
+    <t>VzD</t>
+  </si>
+  <si>
+    <t>VzM</t>
+  </si>
+  <si>
+    <t>VzS</t>
+  </si>
+  <si>
+    <t>sd_Hz</t>
+  </si>
+  <si>
+    <t>sd_dist</t>
+  </si>
+  <si>
+    <t>sd_Vz</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -119,10 +153,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -133,6 +170,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -181,7 +221,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -216,7 +256,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -425,198 +465,226 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="D6:E7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" customWidth="1"/>
-    <col min="2" max="3" width="13.33203125" customWidth="1"/>
-    <col min="4" max="4" width="8.44140625" customWidth="1"/>
-    <col min="5" max="5" width="8.33203125" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" customWidth="1"/>
+    <col min="1" max="1" width="8.7109375" customWidth="1"/>
+    <col min="2" max="3" width="13.28515625" customWidth="1"/>
+    <col min="4" max="4" width="8.42578125" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" customWidth="1"/>
+    <col min="6" max="6" width="14.28515625" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
         <v>7</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>2288041.947647694</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>5577057.9836113332</v>
       </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
       <c r="E2" t="s">
         <v>15</v>
       </c>
       <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>2288131.3684999486</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>5577003.0117759304</v>
       </c>
-      <c r="D3" t="s">
-        <v>15</v>
-      </c>
       <c r="E3" t="s">
         <v>15</v>
       </c>
       <c r="F3" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>2288174.6130104652</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>5577070.0774151208</v>
       </c>
-      <c r="D4" t="s">
-        <v>15</v>
-      </c>
       <c r="E4" t="s">
         <v>15</v>
       </c>
       <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
         <v>10</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>2288082.993284794</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>5577124.6827716203</v>
       </c>
-      <c r="D5" t="s">
-        <v>15</v>
-      </c>
       <c r="E5" t="s">
         <v>15</v>
       </c>
       <c r="F5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
         <v>11</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>2287817.2960803499</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>5577018.7703687465</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="1" t="b">
+      <c r="F6" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="F6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="G6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
         <v>12</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>2288049.6437046509</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>5576904.4289511088</v>
-      </c>
-      <c r="D7" t="s">
-        <v>16</v>
       </c>
       <c r="E7" t="s">
         <v>16</v>
       </c>
       <c r="F7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
         <v>13</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>2288256.3378057643</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>5577069.3444573171</v>
       </c>
-      <c r="D8" t="s">
-        <v>15</v>
-      </c>
       <c r="E8" t="s">
         <v>15</v>
       </c>
       <c r="F8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="G8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
         <v>14</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <v>2288048.9107468454</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>5577188.083621786</v>
       </c>
-      <c r="D9" t="s">
-        <v>15</v>
-      </c>
       <c r="E9" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" t="s">
         <v>15</v>
       </c>
     </row>
@@ -627,271 +695,197 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
+      <c r="G1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>11</v>
       </c>
       <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2">
+        <v>3</v>
+      </c>
+      <c r="L2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="K3">
+        <v>3</v>
+      </c>
+      <c r="L3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>12</v>
       </c>
-      <c r="D2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2">
-        <v>3</v>
-      </c>
-      <c r="G2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="B5" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
         <v>7</v>
       </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3">
-        <v>3</v>
-      </c>
-      <c r="G3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
         <v>8</v>
       </c>
-      <c r="D4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4">
-        <v>3</v>
-      </c>
-      <c r="G4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5">
-        <v>3</v>
-      </c>
-      <c r="G5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6">
-        <v>3</v>
-      </c>
-      <c r="G6">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>13</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>14</v>
       </c>
-      <c r="D7" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7">
-        <v>3</v>
-      </c>
-      <c r="G7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="B10" t="s">
         <v>13</v>
       </c>
-      <c r="C8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8">
-        <v>3</v>
-      </c>
-      <c r="G8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
         <v>9</v>
       </c>
-      <c r="D9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" t="s">
-        <v>16</v>
-      </c>
-      <c r="F9">
-        <v>3</v>
-      </c>
-      <c r="G9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" t="s">
-        <v>16</v>
-      </c>
-      <c r="F10">
-        <v>3</v>
-      </c>
-      <c r="G10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>16</v>
-      </c>
-      <c r="E11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11">
-        <v>3</v>
-      </c>
-      <c r="G11">
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
         <v>2</v>
       </c>
     </row>
